--- a/account/design.1/テーブル定義書 1.xlsx
+++ b/account/design.1/テーブル定義書 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emi07\Desktop\追加課題6\【実習】各種設計書（テンプレ）\基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD2F378F-325A-4FE8-AD80-EA93BAAB45F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{02F35D37-00EC-47F1-BAE9-9579CF0B56AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" tabRatio="855" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" tabRatio="855" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙 " sheetId="165" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="96">
   <si>
     <t>ユーザー名</t>
     <rPh sb="4" eb="5">
@@ -61,14 +61,7 @@
     <phoneticPr fontId="15"/>
   </si>
   <si>
-    <t>生徒管理システム</t>
-    <rPh sb="0" eb="2">
-      <t>セイト</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
+    <t>アカウント管理システム</t>
   </si>
   <si>
     <t>テーブル定義書</t>
@@ -143,18 +136,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>岩岬</t>
-    <rPh sb="0" eb="2">
-      <t>イワサキ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>渡辺</t>
-    <rPh sb="0" eb="2">
-      <t>ワタナベ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
+    <t>山本</t>
   </si>
   <si>
     <t>テーブル仕様書</t>
@@ -188,9 +170,6 @@
     <t>作成者</t>
   </si>
   <si>
-    <t>山本</t>
-  </si>
-  <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
       <t>サクセイビ</t>
@@ -201,7 +180,7 @@
     <t>ユーザー管理</t>
   </si>
   <si>
-    <t>アカウント</t>
+    <t>アカウント情報</t>
   </si>
   <si>
     <t>account</t>
@@ -221,7 +200,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>新規アカウント登録した情報を管理するテーブル</t>
+    <t>アカウント情報を管理するテーブル</t>
   </si>
   <si>
     <t>No</t>
@@ -278,9 +257,6 @@
   </si>
   <si>
     <t>〇</t>
-  </si>
-  <si>
-    <t>自動採番</t>
   </si>
   <si>
     <t>ユーザーの一意の識別子として使用</t>
@@ -453,7 +429,7 @@
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <name val="明朝"/>
@@ -589,6 +565,11 @@
       <name val="游ゴシック"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1143,6 +1124,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1152,6 +1145,30 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1167,18 +1184,6 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1200,40 +1205,16 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1755,8 +1736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA8C5E07-C728-4F0F-892B-380398005DB8}">
   <dimension ref="A1:FT43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AM35" sqref="AM35"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AD27" sqref="AD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.95" customHeight="1"/>
@@ -2953,7 +2934,7 @@
       <c r="D26" s="43"/>
       <c r="E26" s="43"/>
       <c r="F26" s="62">
-        <v>38487</v>
+        <v>45247</v>
       </c>
       <c r="G26" s="63"/>
       <c r="H26" s="63"/>
@@ -2983,7 +2964,7 @@
         <v>13</v>
       </c>
       <c r="AD26" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE26" s="32"/>
       <c r="AF26" s="37"/>
@@ -3589,9 +3570,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B14" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K7" sqref="K7:L22"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1"/>
@@ -3614,102 +3595,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="4" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="68" t="s">
+      <c r="I1" s="71"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="67"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="52" t="s">
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+    </row>
+    <row r="2" spans="1:15" ht="20.25" customHeight="1">
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="D2" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-    </row>
-    <row r="2" spans="1:15" ht="20.25" customHeight="1">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="5" t="s">
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="71"/>
-      <c r="J2" s="73"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="85"/>
       <c r="K2" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L2" s="24">
         <v>45247</v>
       </c>
       <c r="M2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="86"/>
+      <c r="O2" s="85"/>
+    </row>
+    <row r="3" spans="1:15" ht="20.25" customHeight="1">
+      <c r="A3" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="75"/>
+      <c r="C3" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="74"/>
-      <c r="O2" s="73"/>
-    </row>
-    <row r="3" spans="1:15" ht="20.25" customHeight="1">
-      <c r="A3" s="75" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="79" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="80"/>
-      <c r="O3" s="81"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="89"/>
     </row>
     <row r="4" spans="1:15" ht="20.25" customHeight="1">
-      <c r="A4" s="77"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="83"/>
-      <c r="O4" s="84"/>
+      <c r="A4" s="76"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="92"/>
     </row>
     <row r="5" spans="1:15" ht="18.75" customHeight="1">
       <c r="B5" s="9"/>
@@ -3720,666 +3701,666 @@
     </row>
     <row r="6" spans="1:15" ht="31.5" customHeight="1">
       <c r="A6" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="D6" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="E6" s="56" t="s">
         <v>30</v>
-      </c>
-      <c r="D6" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="56" t="s">
-        <v>32</v>
       </c>
       <c r="F6" s="57"/>
       <c r="G6" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="59" t="s">
+      <c r="J6" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="60" t="s">
+      <c r="K6" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="61" t="s">
+      <c r="L6" s="94"/>
+      <c r="M6" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="K6" s="85" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6" s="93"/>
-      <c r="M6" s="92" t="s">
-        <v>38</v>
-      </c>
-      <c r="N6" s="91"/>
-      <c r="O6" s="91"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="80"/>
     </row>
     <row r="7" spans="1:15" s="20" customFormat="1" ht="31.5" customHeight="1">
       <c r="A7" s="14">
         <v>1</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="E7" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="F7" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="H7" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="17" t="s">
+      <c r="J7" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="95" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" s="86" t="s">
-        <v>46</v>
-      </c>
-      <c r="L7" s="94"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="91"/>
-      <c r="O7" s="91"/>
+      <c r="L7" s="96"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="80"/>
     </row>
     <row r="8" spans="1:15" s="20" customFormat="1" ht="31.5" customHeight="1">
       <c r="A8" s="21">
         <v>2</v>
       </c>
       <c r="B8" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="H8" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="K8" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="J8" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="K8" s="88" t="s">
-        <v>52</v>
-      </c>
-      <c r="L8" s="95"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="91"/>
-      <c r="O8" s="91"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="80"/>
+      <c r="O8" s="80"/>
     </row>
     <row r="9" spans="1:15" s="20" customFormat="1" ht="31.5" customHeight="1">
       <c r="A9" s="22">
         <v>3</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K9" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="L9" s="96"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="91"/>
-      <c r="O9" s="91"/>
+        <v>52</v>
+      </c>
+      <c r="L9" s="67"/>
+      <c r="M9" s="81"/>
+      <c r="N9" s="80"/>
+      <c r="O9" s="80"/>
     </row>
     <row r="10" spans="1:15" s="20" customFormat="1" ht="31.5" customHeight="1">
       <c r="A10" s="22">
         <v>4</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K10" s="66" t="s">
-        <v>58</v>
-      </c>
-      <c r="L10" s="96"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="91"/>
-      <c r="O10" s="91"/>
+        <v>55</v>
+      </c>
+      <c r="L10" s="67"/>
+      <c r="M10" s="81"/>
+      <c r="N10" s="80"/>
+      <c r="O10" s="80"/>
     </row>
     <row r="11" spans="1:15" s="20" customFormat="1" ht="31.5" customHeight="1">
       <c r="A11" s="22">
         <v>5</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K11" s="66" t="s">
-        <v>61</v>
-      </c>
-      <c r="L11" s="96"/>
-      <c r="M11" s="92"/>
-      <c r="N11" s="91"/>
-      <c r="O11" s="91"/>
+        <v>58</v>
+      </c>
+      <c r="L11" s="67"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="80"/>
+      <c r="O11" s="80"/>
     </row>
     <row r="12" spans="1:15" s="20" customFormat="1" ht="31.5" customHeight="1">
       <c r="A12" s="22">
         <v>6</v>
       </c>
       <c r="B12" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="J12" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="K12" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="L12" s="96"/>
-      <c r="M12" s="92"/>
-      <c r="N12" s="91"/>
-      <c r="O12" s="91"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="81"/>
+      <c r="N12" s="80"/>
+      <c r="O12" s="80"/>
     </row>
     <row r="13" spans="1:15" s="20" customFormat="1" ht="31.5" customHeight="1">
       <c r="A13" s="22">
         <v>7</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K13" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="L13" s="96"/>
-      <c r="M13" s="92"/>
-      <c r="N13" s="91"/>
-      <c r="O13" s="91"/>
+        <v>65</v>
+      </c>
+      <c r="L13" s="67"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="80"/>
+      <c r="O13" s="80"/>
     </row>
     <row r="14" spans="1:15" s="20" customFormat="1" ht="31.5" customHeight="1">
       <c r="A14" s="22">
         <v>8</v>
       </c>
       <c r="B14" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="J14" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="K14" s="87" t="s">
-        <v>72</v>
-      </c>
-      <c r="L14" s="96"/>
-      <c r="M14" s="92"/>
-      <c r="N14" s="91"/>
-      <c r="O14" s="91"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="80"/>
+      <c r="O14" s="80"/>
     </row>
     <row r="15" spans="1:15" s="20" customFormat="1" ht="31.5" customHeight="1">
       <c r="A15" s="22">
         <v>9</v>
       </c>
       <c r="B15" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="J15" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="K15" s="66" t="s">
-        <v>76</v>
-      </c>
-      <c r="L15" s="96"/>
-      <c r="M15" s="92"/>
-      <c r="N15" s="91"/>
-      <c r="O15" s="91"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="81"/>
+      <c r="N15" s="80"/>
+      <c r="O15" s="80"/>
     </row>
     <row r="16" spans="1:15" s="20" customFormat="1" ht="31.5" customHeight="1">
       <c r="A16" s="22">
         <v>10</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K16" s="66" t="s">
-        <v>79</v>
-      </c>
-      <c r="L16" s="96"/>
-      <c r="M16" s="92"/>
-      <c r="N16" s="91"/>
-      <c r="O16" s="91"/>
+        <v>76</v>
+      </c>
+      <c r="L16" s="67"/>
+      <c r="M16" s="81"/>
+      <c r="N16" s="80"/>
+      <c r="O16" s="80"/>
     </row>
     <row r="17" spans="1:15" s="20" customFormat="1" ht="31.5" customHeight="1">
       <c r="A17" s="22">
         <v>11</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="K17" s="89" t="s">
-        <v>82</v>
-      </c>
-      <c r="L17" s="97"/>
-      <c r="M17" s="92"/>
-      <c r="N17" s="91"/>
-      <c r="O17" s="91"/>
+        <v>48</v>
+      </c>
+      <c r="K17" s="78" t="s">
+        <v>79</v>
+      </c>
+      <c r="L17" s="79"/>
+      <c r="M17" s="81"/>
+      <c r="N17" s="80"/>
+      <c r="O17" s="80"/>
     </row>
     <row r="18" spans="1:15" s="20" customFormat="1" ht="31.5" customHeight="1">
       <c r="A18" s="22">
         <v>12</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="K18" s="89" t="s">
-        <v>85</v>
-      </c>
-      <c r="L18" s="97"/>
-      <c r="M18" s="92"/>
-      <c r="N18" s="91"/>
-      <c r="O18" s="91"/>
+        <v>48</v>
+      </c>
+      <c r="K18" s="78" t="s">
+        <v>82</v>
+      </c>
+      <c r="L18" s="79"/>
+      <c r="M18" s="81"/>
+      <c r="N18" s="80"/>
+      <c r="O18" s="80"/>
     </row>
     <row r="19" spans="1:15" s="20" customFormat="1" ht="31.5" customHeight="1">
       <c r="A19" s="22">
         <v>13</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K19" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="L19" s="96"/>
-      <c r="M19" s="92"/>
-      <c r="N19" s="91"/>
-      <c r="O19" s="91"/>
+        <v>85</v>
+      </c>
+      <c r="L19" s="67"/>
+      <c r="M19" s="81"/>
+      <c r="N19" s="80"/>
+      <c r="O19" s="80"/>
     </row>
     <row r="20" spans="1:15" s="20" customFormat="1" ht="31.5" customHeight="1">
       <c r="A20" s="22">
         <v>14</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K20" s="66" t="s">
-        <v>91</v>
-      </c>
-      <c r="L20" s="96"/>
-      <c r="M20" s="92"/>
-      <c r="N20" s="91"/>
-      <c r="O20" s="91"/>
+        <v>88</v>
+      </c>
+      <c r="L20" s="67"/>
+      <c r="M20" s="81"/>
+      <c r="N20" s="80"/>
+      <c r="O20" s="80"/>
     </row>
     <row r="21" spans="1:15" ht="31.5" customHeight="1">
       <c r="A21" s="22">
         <v>15</v>
       </c>
       <c r="B21" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="K21" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="C21" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="I21" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="J21" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="K21" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="L21" s="96"/>
-      <c r="M21" s="92"/>
-      <c r="N21" s="91"/>
-      <c r="O21" s="91"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="81"/>
+      <c r="N21" s="80"/>
+      <c r="O21" s="80"/>
     </row>
     <row r="22" spans="1:15" ht="28.5" customHeight="1">
       <c r="A22" s="22">
         <v>16</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K22" s="66" t="s">
-        <v>98</v>
-      </c>
-      <c r="L22" s="96"/>
-      <c r="M22" s="92"/>
-      <c r="N22" s="91"/>
-      <c r="O22" s="91"/>
+        <v>95</v>
+      </c>
+      <c r="L22" s="67"/>
+      <c r="M22" s="81"/>
+      <c r="N22" s="80"/>
+      <c r="O22" s="80"/>
     </row>
     <row r="23" spans="1:15" ht="28.5" customHeight="1">
       <c r="A23" s="22">
@@ -4395,10 +4376,10 @@
       <c r="I23" s="17"/>
       <c r="J23" s="17"/>
       <c r="K23" s="66"/>
-      <c r="L23" s="96"/>
-      <c r="M23" s="92"/>
-      <c r="N23" s="91"/>
-      <c r="O23" s="91"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="81"/>
+      <c r="N23" s="80"/>
+      <c r="O23" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="29">
